--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2588255.603098532</v>
+        <v>2585688.861885837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205897</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431077</v>
+        <v>430763.7823717233</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9357036.226895338</v>
+        <v>9357187.960308045</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>125.3363843732644</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880556</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.5935461816078</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.32897990642503</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>74.03158105159743</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>4.164013692469825</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
-        <v>175.3139866200684</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.3159054168628</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991918</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081998</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561464</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
         <v>188.3907690366107</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>7.729505493038737</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>140.4176540277111</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.36085357345775</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>227.4416075558302</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.43427371450322</v>
+        <v>59.75887110882596</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>89.5340822374514</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2728,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2770,7 +2770,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>132.7939019641471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>22.39216899855762</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.1834952849962</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.53408223744343</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>14.08221454840258</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>86.72290329779632</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>105.3798824585288</v>
       </c>
       <c r="H37" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1854515484242</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>1.272790488244789</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>158.419602049996</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>175.2996980526258</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>977.3195476660592</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>591.5312950678149</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>180.5453902782073</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>604.2971193765273</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>604.2971193765273</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>604.2971193765273</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>604.2971193765273</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>604.2971193765273</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>604.2971193765273</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>495.9333588715791</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>495.9333588715791</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>495.9333588715791</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V7" t="n">
-        <v>723.9229097695965</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W7" t="n">
-        <v>723.9229097695965</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X7" t="n">
-        <v>495.9333588715791</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.9333588715791</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.9506728057379</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057379</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761949</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.544336448288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359523</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.5146034535592</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.8483481516064</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.344223650718</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074383978</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.49438794417</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151128</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610263</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297609</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
@@ -5094,61 +5094,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C12" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E12" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034521</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668096</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310559</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562685</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.755759562685</v>
+        <v>1971.609675461662</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.632234562877</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S12" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U12" t="n">
         <v>2016.877442379908</v>
@@ -5160,7 +5160,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y12" t="n">
         <v>1111.876178449477</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1011.737190030639</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>842.8010071027319</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>692.6843676903961</v>
+        <v>318.3519507135935</v>
       </c>
       <c r="E13" t="n">
-        <v>544.771274108003</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131767</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117233</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948564</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139315</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782253</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.802824897839</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.385654860879</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>1193.385654860879</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>1193.385654860879</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5279,25 +5279,25 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5355,16 +5355,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>142.6767696327857</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849133</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N15" t="n">
         <v>1356.791087284249</v>
@@ -5413,22 +5413,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5513,10 +5513,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5595,25 +5595,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180325</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701601</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269496</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>554.7738874534192</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>385.8377045255123</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5710,13 +5710,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1185.204482325206</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>957.2149314271891</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>736.4223522836589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,10 +5738,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5774,28 +5774,28 @@
         <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L21" t="n">
-        <v>142.6767696327857</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849133</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C22" t="n">
-        <v>485.566145539011</v>
+        <v>616.3816837083186</v>
       </c>
       <c r="D22" t="n">
-        <v>485.566145539011</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="E22" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F22" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G22" t="n">
         <v>318.3519507135898</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5999,40 +5999,40 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L24" t="n">
-        <v>142.6767696327857</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849133</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>2130.242773784703</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284444</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P24" t="n">
         <v>2323.25108071052</v>
@@ -6124,19 +6124,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6206,49 +6206,49 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127636</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507186</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034522</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668096</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310559</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296241</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695575</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6345,7 +6345,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.6744839468082</v>
+        <v>874.9184063975744</v>
       </c>
       <c r="C28" t="n">
-        <v>697.7383010189013</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="D28" t="n">
-        <v>697.7383010189013</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E28" t="n">
-        <v>549.8252074365082</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385979</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2429.412499335687</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2209.733717050069</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1920.657503364796</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.522248855556</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1497.105078818595</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>1269.115527920578</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.322948777048</v>
+        <v>874.9184063975744</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127638</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160769</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507186</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259444</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.95191294679</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580352</v>
@@ -6494,19 +6494,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6516,61 +6516,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D30" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F30" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160704</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953565</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247482</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646816</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284447</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710521</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S30" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U30" t="n">
         <v>2016.877442379908</v>
@@ -6582,7 +6582,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.876178449477</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149475921</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196852</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196852</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196852</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196852</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131767</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819379</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>897.536758921362</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778318</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160639</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507179</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074383977</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.49438794417</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946789</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052794</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
         <v>4606.9501443472</v>
@@ -6753,61 +6753,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160704</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2380436180413</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>965.2563978701667</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269501</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.228836269693</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
         <v>2016.877442379908</v>
@@ -6819,7 +6819,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.876178449477</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1099.422008959557</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C34" t="n">
-        <v>930.4858260316505</v>
+        <v>546.9521111632233</v>
       </c>
       <c r="D34" t="n">
-        <v>780.3691866193147</v>
+        <v>396.8354717508876</v>
       </c>
       <c r="E34" t="n">
-        <v>632.4560930369216</v>
+        <v>396.8354717508876</v>
       </c>
       <c r="F34" t="n">
-        <v>485.5661455390112</v>
+        <v>249.9455242529772</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135901</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.954262074192</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.954262074192</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.954262074192</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>2019.269773868305</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>1281.070473789797</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890958</v>
@@ -6923,7 +6923,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6938,22 +6938,22 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
         <v>4566.333620403613</v>
@@ -6968,19 +6968,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K36" t="n">
-        <v>198.8209117892287</v>
+        <v>238.7141959544605</v>
       </c>
       <c r="L36" t="n">
-        <v>689.55324463298</v>
+        <v>729.4465287982117</v>
       </c>
       <c r="M36" t="n">
-        <v>1281.571598885108</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N36" t="n">
-        <v>1903.667562284444</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149475962</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149475962</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149475962</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1595320196932</v>
+        <v>347.1826213652031</v>
       </c>
       <c r="F37" t="n">
-        <v>326.1595320196932</v>
+        <v>200.2926738672927</v>
       </c>
       <c r="G37" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7126,19 +7126,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213661</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778359</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,10 +7160,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
@@ -7181,13 +7181,13 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
         <v>4202.751434297606</v>
@@ -7199,25 +7199,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="L39" t="n">
-        <v>915.089423558717</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="M39" t="n">
-        <v>1507.107777810845</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.203741210181</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7309,22 +7309,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G40" t="n">
-        <v>158.945337194272</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
@@ -7442,19 +7442,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034529</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668117</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L42" t="n">
-        <v>792.8215620441084</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M42" t="n">
-        <v>1384.839916296236</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N42" t="n">
-        <v>2006.935879695572</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890988</v>
+        <v>721.9880822788404</v>
       </c>
       <c r="C43" t="n">
-        <v>402.9352599385978</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="D43" t="n">
         <v>402.9352599385978</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>903.6365471090801</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556106</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148066</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064409</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7725,52 +7725,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>175.906105897543</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2317121133016</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.610199739853</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.20816329446</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.20816329446</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6924615224359</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>402.756278594529</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>402.756278594529</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E46" t="n">
-        <v>402.756278594529</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F46" t="n">
-        <v>402.756278594529</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="G46" t="n">
-        <v>235.560179309409</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="H46" t="n">
         <v>93.84834815160703</v>
@@ -7804,52 +7804,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819308</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.299941292873</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.224714637071</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.540226431184</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.123056394223</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1335054962058</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3409263526756</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8225,7 +8225,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>51.3126478291108</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="R29" t="n">
-        <v>51.3126478291112</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.8859675251736</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>5.003393995220108</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108389</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.0601944494735</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>59.08139078076078</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>157.8125473841246</v>
+        <v>107.4879499898019</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>76.00797063971552</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440903</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>119.3437413596809</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>196.1924843535372</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0.4319777332161152</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>76.0079706397235</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>151.4598383287643</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>94.61558506066278</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>60.16217041863808</v>
       </c>
       <c r="H37" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440903</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>165.974030610383</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>8.827219048631832</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.28495529946895</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>35.07410733342124</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299412</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299412</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299408</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791237.5424528423</v>
+        <v>791500.295629941</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
@@ -26320,40 +26320,40 @@
         <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625179.307266883</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="F2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668831</v>
       </c>
       <c r="G2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="H2" t="n">
         <v>625179.3072668831</v>
       </c>
       <c r="I2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="M2" t="n">
         <v>625179.3072668834</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625179.3072668829</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625179.307266883</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625179.3072668827</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625179.3072668833</v>
       </c>
       <c r="N2" t="n">
         <v>625179.3072668833</v>
       </c>
       <c r="O2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625179.3072668836</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545087</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
-        <v>3.055348543057334e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.21919259</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.21139014</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855392</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855166</v>
+        <v>5781.971894855115</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855162</v>
+        <v>5781.971894855161</v>
       </c>
       <c r="H4" t="n">
+        <v>5781.971894855127</v>
+      </c>
+      <c r="I4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="I4" t="n">
-        <v>5781.971894855129</v>
-      </c>
       <c r="J4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855136</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855397</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855115</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855153</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855163</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26491,10 +26491,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237584.0915608657</v>
+        <v>-237584.0915608659</v>
       </c>
       <c r="C6" t="n">
-        <v>352383.7876536785</v>
+        <v>352383.7876536788</v>
       </c>
       <c r="D6" t="n">
         <v>352383.7876536789</v>
       </c>
       <c r="E6" t="n">
-        <v>-418042.3695397196</v>
+        <v>-418078.2665215865</v>
       </c>
       <c r="F6" t="n">
-        <v>518467.2959147866</v>
+        <v>518431.3989329251</v>
       </c>
       <c r="G6" t="n">
-        <v>518467.2959147897</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="H6" t="n">
-        <v>518467.2959147894</v>
+        <v>518431.3989329251</v>
       </c>
       <c r="I6" t="n">
-        <v>518467.2959147898</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="J6" t="n">
-        <v>342044.076722199</v>
+        <v>342008.1797403323</v>
       </c>
       <c r="K6" t="n">
-        <v>518467.2959147891</v>
+        <v>518431.3989329252</v>
       </c>
       <c r="L6" t="n">
-        <v>518467.2959147889</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="M6" t="n">
-        <v>394160.0845246497</v>
+        <v>394124.1875427883</v>
       </c>
       <c r="N6" t="n">
-        <v>518467.2959147897</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="O6" t="n">
-        <v>518467.2959147898</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="P6" t="n">
-        <v>512712.2790804619</v>
+        <v>518431.3989329256</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26759,13 +26759,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992948</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>3.865352482534945e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.909973802026898e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405319</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>288.4477856475306</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293574</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>24.07164579855007</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516593</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>295.6995196268716</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>247.9736296313582</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693534</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
-        <v>189.9589051509391</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060685</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.9968953246362</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,10 +31279,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.45946150237741</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122266</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874051</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083041</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364238</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529328</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229579</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086925</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687501</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148589</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987153</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854254</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901927</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540897</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504279</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>450.346644734292</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426185</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>489.7119024980574</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273328</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900878</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640608</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265011</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416864</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851316</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688752</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>420.7661933823242</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504301</v>
@@ -32327,16 +32327,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>294.2987864713288</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S18" t="n">
         <v>54.2575834086216</v>
@@ -32546,19 +32546,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>187.8760176396507</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>418.8742322669827</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927637</v>
@@ -32573,7 +32573,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S21" t="n">
         <v>54.2575834086216</v>
@@ -32783,16 +32783,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504301</v>
@@ -32801,10 +32801,10 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>337.5541302280972</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>372.8719498286952</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.977002173581</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>467.4901056247271</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927615</v>
+        <v>636.218582673967</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>248.6291370077079</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982436</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>420.766193382333</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504278</v>
+        <v>403.474920527853</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982436</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>243.8743315376132</v>
+        <v>283.1210503161074</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745724</v>
@@ -33746,10 +33746,10 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982453</v>
@@ -33758,7 +33758,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
@@ -33968,16 +33968,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>150.4305144013751</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504301</v>
@@ -33986,16 +33986,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
         <v>54.2575834086216</v>
@@ -34205,22 +34205,22 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>361.6013389488608</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>366.5958444985333</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426204</v>
@@ -34229,10 +34229,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601529</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>159.4963216193748</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380604</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020553</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>796.0449487554779</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870058</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404094</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284097</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>319.0049326509587</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798174</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>355.7374950837272</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066001</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642049</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883417</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606349</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044793</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977649</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>282.21181360245</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284117</v>
@@ -35975,16 +35975,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>160.3243790569985</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>49.32163785977649</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>276.7401983449644</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094305</v>
@@ -36221,7 +36221,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554617</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870084</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>49.32163785977649</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284117</v>
@@ -36449,10 +36449,10 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>194.9578857836528</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>232.8901757426737</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020552</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069143</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>325.3560717027087</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094282</v>
+        <v>504.8768705906338</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981739</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404093</v>
+        <v>418.5673812695028</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136943</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094282</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>106.0328925632635</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380603</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>282.2118136024588</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284094</v>
+        <v>261.3408866058347</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094282</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981739</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
         <v>625.777556066439</v>
@@ -37324,7 +37324,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845841</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>106.0328925632542</v>
+        <v>145.2796113417484</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946982</v>
@@ -37394,10 +37394,10 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839151</v>
@@ -37406,7 +37406,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
         <v>744.7323009263698</v>
@@ -37558,7 +37558,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q38" t="n">
         <v>367.2547334404111</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>12.58907542701613</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284117</v>
@@ -37634,16 +37634,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>223.0469591689865</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>235.2541324152</v>
       </c>
       <c r="O42" t="n">
         <v>552.400479798176</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>25.52191420504458</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
